--- a/공용폴더/부동산거래플로우차트/정리/이현섭/거래시점별필요문서정리.xlsx
+++ b/공용폴더/부동산거래플로우차트/정리/이현섭/거래시점별필요문서정리.xlsx
@@ -230,15 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 등기사항증명서(등기부등본)
-2. 신분증
-   (주민등록증, 운전면허증, 여권)
-3. 도장 (막도장 가능)
-* 인감 / 위임장
-   (대리인일 때만 필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 계약서 작성 전 해당 물건 검토*
 1. 등기부등본
 2. 건축물 대장
@@ -286,11 +277,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 등기사항전부증명서(등기부등본)
+2. 신분증
+   (주민등록증, 운전면허증, 여권)
+3. 도장 (막도장 가능)
+* 인감 / 위임장
+   (대리인일 때만 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>*계약서 작성 및 계약 시*
 1. 계약서
 2. 중개대상물확인설명서
 3. 개인정보 활용 동의서
-4. 부동산 실거래신고서 - 부동산거래 신고필증
+4. 부동산 실거래가격 신고 - 부동산거래 신고필증 - 부동산거래관리시스템
 5. 부동산 공제증서
 6. 계약금 입금 과정 확인 (매도인측 통장으로 필히 입금)
 7. 신분증 진위여부 확인
@@ -938,7 +938,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,11 +981,11 @@
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>34</v>
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="10"/>
@@ -1026,7 +1026,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>35</v>
@@ -1035,12 +1035,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="281.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="297.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>46</v>
